--- a/Mchenry Scraper/McHenry.xlsx
+++ b/Mchenry Scraper/McHenry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
   <si>
     <t>PIN</t>
   </si>
@@ -157,7 +157,7 @@
     <t>19-22-100-006</t>
   </si>
   <si>
-    <t>list index out of range</t>
+    <t>520 WEBSTER ST</t>
   </si>
   <si>
     <t>818 SCOTT ST</t>
@@ -187,42 +187,45 @@
     <t>9575 S IL RT 31</t>
   </si>
   <si>
+    <t>ALGONQUIN</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>520 WEBSTER LLC,</t>
+  </si>
+  <si>
+    <t>MILANA, PAOLINA ROSARIO J</t>
+  </si>
+  <si>
+    <t>CEBRA, ROBIN L</t>
+  </si>
+  <si>
+    <t>WILLIAMS, CAROL</t>
+  </si>
+  <si>
+    <t>GAYNOR, CAITLYN</t>
+  </si>
+  <si>
+    <t>WILKEN, MATTHEW J TINA M</t>
+  </si>
+  <si>
+    <t>HRITSUK, WALTER J JR ELAINE</t>
+  </si>
+  <si>
+    <t>REED, RANDALL H VICTORIA R</t>
+  </si>
+  <si>
+    <t>GALAXY SITES, 820 CHURCH ST</t>
+  </si>
+  <si>
+    <t>KING, MATTHEW 1303 CUNAT CT</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>ALGONQUIN</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>MILANA, PAOLINA ROSARIO J</t>
-  </si>
-  <si>
-    <t>CEBRA, ROBIN L</t>
-  </si>
-  <si>
-    <t>WILLIAMS, CAROL</t>
-  </si>
-  <si>
-    <t>GAYNOR, CAITLYN</t>
-  </si>
-  <si>
-    <t>WILKEN, MATTHEW J TINA M</t>
-  </si>
-  <si>
-    <t>HRITSUK, WALTER J JR ELAINE</t>
-  </si>
-  <si>
-    <t>REED, RANDALL H VICTORIA R</t>
-  </si>
-  <si>
-    <t>GALAXY SITES, 820 CHURCH ST</t>
-  </si>
-  <si>
-    <t>KING, MATTHEW 1303 CUNAT CT</t>
-  </si>
-  <si>
     <t>315 S HUBBARD</t>
   </si>
   <si>
@@ -268,6 +271,14 @@
     <t>0040 - Improved Lots</t>
   </si>
   <si>
+    <t>HERRMANN, SCOTT F
+19N100 WOODVIEW PKWY
+HAMPSHIRE, IL, 60140</t>
+  </si>
+  <si>
+    <t>2008;2005;2004</t>
+  </si>
+  <si>
     <t>2017;2004;2001</t>
   </si>
   <si>
@@ -277,6 +288,9 @@
     <t>2013</t>
   </si>
   <si>
+    <t>2008R0020259;2005R0026552;2004R0112859</t>
+  </si>
+  <si>
     <t>2017R0026532;2004R0034509;2002R0001791</t>
   </si>
   <si>
@@ -286,6 +300,9 @@
     <t>2013R0038181</t>
   </si>
   <si>
+    <t>Warranty Deed;Deed;Deed</t>
+  </si>
+  <si>
     <t>Trustee Deed;Deed;Deed</t>
   </si>
   <si>
@@ -295,6 +312,9 @@
     <t>Trustee Deed</t>
   </si>
   <si>
+    <t>2/1/2008;2/22/2005;11/23/2004</t>
+  </si>
+  <si>
     <t>6/29/2017;4/2/2004;12/11/2001</t>
   </si>
   <si>
@@ -304,6 +324,9 @@
     <t>7/25/2013</t>
   </si>
   <si>
+    <t>ROBERT GRAULLERA;MIDWEST BK/TR TR 0438246;FRASOR, JAMES F &amp; CARLENE</t>
+  </si>
+  <si>
     <t>CHRISTOPHER D BERARDI TR;DONATUCCI, CLEM;MCHUGH, JILL A</t>
   </si>
   <si>
@@ -313,6 +336,9 @@
     <t>HELEN G HOPP TRS DECL OF TR LIV TR OF HELEN G HOPP</t>
   </si>
   <si>
+    <t>SCOTT HERMANN;GRAULLERA, ROBERT;MIDWEST BK/TR TR 0438246</t>
+  </si>
+  <si>
     <t>CAITLYN GAYNOR;BERARDI, CHRISTOPHER D;DONATUCCI, CLEM</t>
   </si>
   <si>
@@ -322,6 +348,9 @@
     <t>MICHELLE KIEFER</t>
   </si>
   <si>
+    <t>$178,000.00;$227,000.00;$168,253.00</t>
+  </si>
+  <si>
     <t>$148,000.00;$177,500.00;$148,000.00</t>
   </si>
   <si>
@@ -385,15 +414,15 @@
     <t>6,000;5,000</t>
   </si>
   <si>
+    <t>2019;2018;2017</t>
+  </si>
+  <si>
     <t>2018;2017;2016</t>
   </si>
   <si>
     <t>2019;2018</t>
   </si>
   <si>
-    <t>2019;2018;2017</t>
-  </si>
-  <si>
     <t>2019;2018;2014</t>
   </si>
   <si>
@@ -403,6 +432,9 @@
     <t>2019;2018;2016</t>
   </si>
   <si>
+    <t>2018-01329;2018-01329;2017-01258</t>
+  </si>
+  <si>
     <t>2017-01266;2017-01266;2014-01735</t>
   </si>
   <si>
@@ -430,21 +462,24 @@
     <t>2018-01248;2018-01248;2016-01209</t>
   </si>
   <si>
+    <t>Subsequent Sale;Tax Sale;Tax Sale</t>
+  </si>
+  <si>
     <t>Subsequent Sale;Tax Sale;Subsequent Sale</t>
   </si>
   <si>
     <t>Subsequent Sale;Tax Sale</t>
   </si>
   <si>
-    <t>Subsequent Sale;Tax Sale;Tax Sale</t>
-  </si>
-  <si>
     <t>Tax Sale</t>
   </si>
   <si>
     <t>Subsequent Sale;Subsequent Sale;Subsequent Sale</t>
   </si>
   <si>
+    <t>10/5/2020;10/28/2019;10/29/2018</t>
+  </si>
+  <si>
     <t>9/17/2019;10/29/2018;9/18/2017</t>
   </si>
   <si>
@@ -460,15 +495,15 @@
     <t>10/28/2019</t>
   </si>
   <si>
-    <t>10/5/2020;10/28/2019;10/29/2018</t>
-  </si>
-  <si>
     <t>5/28/2020;9/17/2019;9/17/2018</t>
   </si>
   <si>
     <t>10/7/2020;10/28/2019;10/30/2017</t>
   </si>
   <si>
+    <t>Redeemed;Redeemed;Redeemed</t>
+  </si>
+  <si>
     <t>Open Sale;Open Sale;Redeemed</t>
   </si>
   <si>
@@ -479,6 +514,9 @@
   </si>
   <si>
     <t>Open Sale;Open Sale;Open Sale</t>
+  </si>
+  <si>
+    <t>1/27/2021;1/27/2021;3/7/2019</t>
   </si>
   <si>
     <t>;;4/25/2018</t>
@@ -1005,106 +1043,106 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>60102</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="AF2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="AG2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="AH2" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="AI2" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="AJ2" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="AK2" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1115,10 +1153,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
       </c>
       <c r="E3">
         <v>60102</v>
@@ -1130,82 +1168,82 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AD3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AE3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AF3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AG3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AH3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AI3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AK3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1216,10 +1254,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
       </c>
       <c r="E4">
         <v>60102</v>
@@ -1231,88 +1269,88 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Z4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AD4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AF4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AI4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AK4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1323,10 +1361,10 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
       <c r="E5">
         <v>60102</v>
@@ -1338,91 +1376,91 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Z5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AC5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AD5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AE5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AF5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AG5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AH5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AI5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AJ5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1433,10 +1471,10 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
       </c>
       <c r="E6">
         <v>60102</v>
@@ -1448,91 +1486,91 @@
         <v>51</v>
       </c>
       <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="U6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="W6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="X6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AA6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AB6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AD6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AE6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AG6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AH6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AI6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AK6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1543,10 +1581,10 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
       </c>
       <c r="E7">
         <v>60102</v>
@@ -1558,88 +1596,88 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Z7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AA7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AD7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AE7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AF7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AG7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AH7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AI7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AK7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1650,10 +1688,10 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
       </c>
       <c r="E8">
         <v>60102</v>
@@ -1662,91 +1700,91 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Z8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AC8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AD8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AE8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AG8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AI8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AJ8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1757,10 +1795,10 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
       </c>
       <c r="E9">
         <v>60102</v>
@@ -1772,88 +1810,88 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AD9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AE9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AG9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AH9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AI9" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AK9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1864,10 +1902,10 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
       </c>
       <c r="E10">
         <v>60102</v>
@@ -1876,94 +1914,94 @@
         <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Z10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AB10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AC10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AD10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AH10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AI10" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AJ10" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AK10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1974,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
       </c>
       <c r="E11">
         <v>60102</v>
@@ -1986,94 +2024,94 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="U11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="W11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AA11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AB11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AD11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AE11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AH11" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AI11" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ11" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AK11" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
